--- a/medicine/Enfance/Jürg_Obrist/Jürg_Obrist.xlsx
+++ b/medicine/Enfance/Jürg_Obrist/Jürg_Obrist.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>J%C3%BCrg_Obrist</t>
+          <t>Jürg_Obrist</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jürg Obrist, né le 20 décembre 1947 à Zurich, est un graphiste et auteur suisse.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>J%C3%BCrg_Obrist</t>
+          <t>Jürg_Obrist</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après des études de photographe, il s’installe aux États-Unis où il commence une carrière d’illustrateur. En 1978 paraît le premier livre pour enfants (They do things right in Albern) dont il est l’illustrateur. De retour en Suisse, Obrist se consacre à l’illustration et à la littérature jeunesse.
-En 1997, il reçoit la Plaque d'Or de la Biennale d'illustration de Bratislava (BIB)[1], pour ses illustrations de Die Aludose und die leisen Lieder.
-En 2022, il est sélectionné pour le prestigieux prix international, le Prix commémoratif Astrid-Lindgren[2].
+En 1997, il reçoit la Plaque d'Or de la Biennale d'illustration de Bratislava (BIB), pour ses illustrations de Die Aludose und die leisen Lieder.
+En 2022, il est sélectionné pour le prestigieux prix international, le Prix commémoratif Astrid-Lindgren.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>J%C3%BCrg_Obrist</t>
+          <t>Jürg_Obrist</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titres publiés en français :
 Valérie et le roi Teddy (1995)  (ISBN 3314209010)
@@ -564,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>J%C3%BCrg_Obrist</t>
+          <t>Jürg_Obrist</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,10 +598,12 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1997 : Plaque d'Or de la Biennale d'illustration de Bratislava (BIB)[1] pour ses illustrations de Die Aludose und die leisen Lieder
-2022 :  Sélection pour le Prix commémoratif Astrid-Lindgren[2]</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1997 : Plaque d'Or de la Biennale d'illustration de Bratislava (BIB) pour ses illustrations de Die Aludose und die leisen Lieder
+2022 :  Sélection pour le Prix commémoratif Astrid-Lindgren</t>
         </is>
       </c>
     </row>
